--- a/united states.xlsx
+++ b/united states.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakshandakhan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon\Documents\Grad School\Urban &amp; Regional (ECON 8080)\Regional Inequality\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067690A8-B4A3-9F4D-B039-743E8858D331}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C773CD36-5B51-4527-BF2B-DD14E3CC4E12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="8200" windowWidth="27640" windowHeight="16260" xr2:uid="{E21B353B-B447-0748-BA44-EB3AF34D0080}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E21B353B-B447-0748-BA44-EB3AF34D0080}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>GINI</t>
   </si>
@@ -49,16 +55,20 @@
   </si>
   <si>
     <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>Pct &gt;=25 w HS Diploma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.##"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +79,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,16 +108,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -109,8 +124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,43 +444,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55109471-C1A7-A24E-9BDA-2FAB950AF730}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="10" max="10" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -471,27 +492,29 @@
       <c r="C2" s="1">
         <v>30283.7942</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>3.8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>9.6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>15.9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>24</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>46.6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>5.6</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="5">
+        <v>78.431446683554512</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -501,26 +524,29 @@
       <c r="C3">
         <v>38842.250940301274</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3.6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>8.9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>14.8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>23</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>49.8</v>
       </c>
       <c r="I3" s="1">
         <v>3.9900000100000002</v>
       </c>
+      <c r="J3" s="5">
+        <v>84.104320036523433</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -530,23 +556,26 @@
       <c r="C4">
         <v>40991.684257259141</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3.3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>8.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>14.6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>23.4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>50.3</v>
       </c>
       <c r="I4">
         <v>9.6300001144409197</v>
+      </c>
+      <c r="J4" s="5">
+        <v>87.139870353327197</v>
       </c>
     </row>
   </sheetData>
